--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -12,24 +12,19 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Operator Joystick</t>
   </si>
   <si>
-    <t>(Feb 17, 2019)</t>
-  </si>
-  <si>
     <t>Manipulator Intake In/Out</t>
   </si>
   <si>
-    <t>Elevator Up/Down</t>
-  </si>
-  <si>
     <t>Kill Everything</t>
   </si>
   <si>
@@ -42,83 +37,38 @@
     <t>Arcade Drive Fwd/Back</t>
   </si>
   <si>
-    <t>Ball Intake In/Out</t>
-  </si>
-  <si>
-    <t>Manipulator Flip</t>
-  </si>
-  <si>
-    <t>Intake Hatch Panel</t>
-  </si>
-  <si>
-    <t>Intake Cargo</t>
-  </si>
-  <si>
-    <t>Deliver Cargo</t>
-  </si>
-  <si>
-    <t>Deliver Hatch Panel</t>
-  </si>
-  <si>
-    <t>Select Position 1*</t>
-  </si>
-  <si>
-    <t>Select Position 4*</t>
-  </si>
-  <si>
-    <t>Select Position 3*</t>
-  </si>
-  <si>
-    <t>Select Position 2*</t>
-  </si>
-  <si>
-    <t>Toggle Ball Intake Wheels</t>
-  </si>
-  <si>
-    <t>Toggle Hatch Panel Grabber</t>
-  </si>
-  <si>
-    <t>*Positions</t>
-  </si>
-  <si>
-    <t>Hatch In</t>
-  </si>
-  <si>
-    <t>Hatch Out</t>
-  </si>
-  <si>
-    <t>Cargo Out</t>
-  </si>
-  <si>
-    <t>Cargo In</t>
-  </si>
-  <si>
-    <t>Rocket Level 2</t>
-  </si>
-  <si>
-    <t>Rocket Level 3</t>
-  </si>
-  <si>
-    <t>Rear Ball Intake</t>
-  </si>
-  <si>
-    <t>Loading Station</t>
-  </si>
-  <si>
-    <t>Rocket Level 1</t>
-  </si>
-  <si>
-    <t>Cargo Ship</t>
-  </si>
-  <si>
-    <t>Rocket 1, Cargo Ship</t>
+    <t>Shift 1</t>
+  </si>
+  <si>
+    <t>Shift 4</t>
+  </si>
+  <si>
+    <t>Shift 3</t>
+  </si>
+  <si>
+    <t>Shift 2</t>
+  </si>
+  <si>
+    <t>Expand/Contract Hatch Panel Grabber</t>
+  </si>
+  <si>
+    <t>Vertical Axis:                                                         No Shift = Elevator Up/Down                                   Shift 1 = Ball Intake In/Out                                   Shift 2 = Manipulator Flip Fwd/Back</t>
+  </si>
+  <si>
+    <t>No Shift = Enable/Disable Ball Intake Wheels Shift 1 = Ball Intake Unfold/Fold                   Shift 2 = Shift To High/Low Gear</t>
+  </si>
+  <si>
+    <t>(Feb 18, 2019)</t>
+  </si>
+  <si>
+    <t>Deploy Ball Intake (Do NOT use)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +127,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -309,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,42 +298,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +381,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -458,7 +424,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns="" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" val="0"/>
+              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -770,228 +736,188 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="5" width="19.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:10" ht="18.75">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="12"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.1" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="26.1" customHeight="1">
+    <row r="4" spans="1:10" ht="26.1" customHeight="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.1" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G5" s="27"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" spans="1:10" ht="26.1" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="12"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G6" s="8"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" ht="26.1" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G7" s="9"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.1" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="G8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G8" s="7"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.1" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="G9" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.1" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.1" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="26.1" customHeight="1">
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.1" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="12"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="G12" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="B17" s="17">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75">
+      <c r="B20" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="20">
-        <v>4</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18.75">
-      <c r="B20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="26.1" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="13"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -999,7 +925,7 @@
     </row>
     <row r="23" spans="1:7" ht="26.1" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1007,7 +933,7 @@
     </row>
     <row r="24" spans="1:7" ht="26.1" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1015,7 +941,7 @@
     </row>
     <row r="25" spans="1:7" ht="26.1" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1023,7 +949,7 @@
     </row>
     <row r="26" spans="1:7" ht="26.1" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="12"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1031,7 +957,7 @@
     </row>
     <row r="27" spans="1:7" ht="26.1" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1039,7 +965,7 @@
     </row>
     <row r="28" spans="1:7" ht="26.1" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1047,19 +973,19 @@
     </row>
     <row r="29" spans="1:7" ht="26.1" customHeight="1">
       <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="G29" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="26.1" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -1067,19 +993,19 @@
     </row>
     <row r="31" spans="1:7" ht="26.1" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="13"/>
+        <v>2</v>
+      </c>
+      <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="G31" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1087,7 +1013,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1095,16 +1021,18 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G4:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C55E53-D755-4D99-B911-3D4435A615C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -37,38 +42,143 @@
     <t>Arcade Drive Fwd/Back</t>
   </si>
   <si>
-    <t>Shift 1</t>
-  </si>
-  <si>
-    <t>Shift 4</t>
-  </si>
-  <si>
-    <t>Shift 3</t>
-  </si>
-  <si>
-    <t>Shift 2</t>
-  </si>
-  <si>
     <t>Expand/Contract Hatch Panel Grabber</t>
   </si>
   <si>
-    <t>Vertical Axis:                                                         No Shift = Elevator Up/Down                                   Shift 1 = Ball Intake In/Out                                   Shift 2 = Manipulator Flip Fwd/Back</t>
-  </si>
-  <si>
-    <t>No Shift = Enable/Disable Ball Intake Wheels Shift 1 = Ball Intake Unfold/Fold                   Shift 2 = Shift To High/Low Gear</t>
-  </si>
-  <si>
-    <t>(Feb 18, 2019)</t>
-  </si>
-  <si>
     <t>Deploy Ball Intake (Do NOT use)</t>
+  </si>
+  <si>
+    <t>Up-Shift</t>
+  </si>
+  <si>
+    <t>Left-Shift</t>
+  </si>
+  <si>
+    <t>Down-Shift</t>
+  </si>
+  <si>
+    <t>Righ-Shift</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>*Shift</t>
+  </si>
+  <si>
+    <t>Right Vertical Axis</t>
+  </si>
+  <si>
+    <t>Ball Intake Unfold/Fold</t>
+  </si>
+  <si>
+    <t>Shift To High/Low Gear</t>
+  </si>
+  <si>
+    <t>*Enable/Disable Ball Intake Wheels</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Ball Intake In/Out</t>
+  </si>
+  <si>
+    <t>Manipulator Flip Fwd/Bck</t>
+  </si>
+  <si>
+    <t>*Elevator Up/Down</t>
+  </si>
+  <si>
+    <t>*Set Manipulator Flipper Forward</t>
+  </si>
+  <si>
+    <t>Man. Flipper Up</t>
+  </si>
+  <si>
+    <t>Man. Flipper Forward</t>
+  </si>
+  <si>
+    <t>Man. Flipper Backwards</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>L2 Hatch Cover Height</t>
+  </si>
+  <si>
+    <t>L1 Hatch Cover Height</t>
+  </si>
+  <si>
+    <t>L3 Hatch Cover Height</t>
+  </si>
+  <si>
+    <t>L3 Cargo Height</t>
+  </si>
+  <si>
+    <t>L2 Cargo Height</t>
+  </si>
+  <si>
+    <t>L1 Cargo Height</t>
+  </si>
+  <si>
+    <t>Cargo Ship Height</t>
+  </si>
+  <si>
+    <t>*Go to L1 Cargo Delivery Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Go to L1 Hatch Cover Delivery Height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ** Direction is based on which side </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          the manipulator is flipped to.</t>
+  </si>
+  <si>
+    <t>Drive To Vision Target</t>
+  </si>
+  <si>
+    <t>Deliver Hatch/Cargo</t>
+  </si>
+  <si>
+    <t>v2.0 (Feb 19, 2019)</t>
+  </si>
+  <si>
+    <t>Pick-up Hatch Cover From Loading St.**</t>
+  </si>
+  <si>
+    <t>Pick-up Cargo From Floor**</t>
+  </si>
+  <si>
+    <t>**Pick-up Cargo From Loading Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +240,105 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,33 +525,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,6 +634,14 @@
       <color rgb="FFCC9900"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -361,27 +649,33 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1217210</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -404,27 +698,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1207685</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns="" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:ve="http://schemas.openxmlformats.org/markup-compatibility/2006" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -491,7 +791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -523,9 +823,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,6 +875,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,333 +1068,475 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
-    <col min="3" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="19.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="3"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="H3" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="G4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="27"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="H5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="8"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="H9" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="G10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="F10" s="4"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="F11" s="3"/>
+      <c r="H11" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="4"/>
+      <c r="H12" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75">
-      <c r="B20" s="22" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="48"/>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="25"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="25"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="33"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="25"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="G29" s="6" t="s">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="H33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="H35" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A30" s="3" t="s">
+    <row r="36" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="26.1" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="6" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="H37" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="4"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="G32" s="6"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="G34" s="6"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G4:G5"/>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C26:G26"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="73" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C55E53-D755-4D99-B911-3D4435A615C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60846EB-1C41-4718-92C6-664780F75F36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,19 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -45,9 +52,6 @@
     <t>Expand/Contract Hatch Panel Grabber</t>
   </si>
   <si>
-    <t>Deploy Ball Intake (Do NOT use)</t>
-  </si>
-  <si>
     <t>Up-Shift</t>
   </si>
   <si>
@@ -150,28 +154,37 @@
     <t xml:space="preserve">*Go to L1 Hatch Cover Delivery Height </t>
   </si>
   <si>
-    <t xml:space="preserve">    ** Direction is based on which side </t>
-  </si>
-  <si>
-    <t xml:space="preserve">          the manipulator is flipped to.</t>
-  </si>
-  <si>
     <t>Drive To Vision Target</t>
   </si>
   <si>
     <t>Deliver Hatch/Cargo</t>
   </si>
   <si>
-    <t>v2.0 (Feb 19, 2019)</t>
-  </si>
-  <si>
-    <t>Pick-up Hatch Cover From Loading St.**</t>
-  </si>
-  <si>
-    <t>Pick-up Cargo From Floor**</t>
-  </si>
-  <si>
-    <t>**Pick-up Cargo From Loading Station</t>
+    <t>Pick-up Cargo From Floor</t>
+  </si>
+  <si>
+    <t>v2.1 (Feb 19, 2019)</t>
+  </si>
+  <si>
+    <t>Climb  from Level 1 to 3*</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Climb from L1 to L3</t>
+  </si>
+  <si>
+    <t>Climb from L2 to L3</t>
+  </si>
+  <si>
+    <t>Climb from L1 to L2</t>
+  </si>
+  <si>
+    <t>Pick-up Hatch Cover From Loading St.</t>
+  </si>
+  <si>
+    <t>Pick-up Cargo From Loading Station</t>
   </si>
 </sst>
 </file>
@@ -269,21 +282,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -337,19 +335,55 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -530,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,25 +606,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,25 +633,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1087,39 +1121,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="18"/>
     </row>
@@ -1131,60 +1165,60 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="H5" s="22" t="s">
-        <v>20</v>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="K5" s="18"/>
     </row>
     <row r="6" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="18"/>
     </row>
     <row r="8" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K8" s="18"/>
     </row>
     <row r="9" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1204,8 +1238,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="H11" s="24" t="s">
-        <v>24</v>
+      <c r="H11" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1222,175 +1256,179 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="F14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" t="s">
-        <v>42</v>
+      <c r="G14" s="47" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" t="s">
-        <v>43</v>
+      <c r="G15" s="50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="48"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="50"/>
+        <v>14</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="49"/>
+      <c r="F18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="25"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="24"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="25"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="33"/>
+        <v>13</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="24"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="25"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+        <v>14</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="24"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="18"/>
     </row>
     <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,7 +1478,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="H33" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1513,7 +1551,7 @@
     <mergeCell ref="C26:G26"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60846EB-1C41-4718-92C6-664780F75F36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -49,9 +43,6 @@
     <t>Arcade Drive Fwd/Back</t>
   </si>
   <si>
-    <t>Expand/Contract Hatch Panel Grabber</t>
-  </si>
-  <si>
     <t>Up-Shift</t>
   </si>
   <si>
@@ -85,12 +76,6 @@
     <t>Ball Intake Unfold/Fold</t>
   </si>
   <si>
-    <t>Shift To High/Low Gear</t>
-  </si>
-  <si>
-    <t>*Enable/Disable Ball Intake Wheels</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -103,95 +88,62 @@
     <t>*Elevator Up/Down</t>
   </si>
   <si>
-    <t>*Set Manipulator Flipper Forward</t>
-  </si>
-  <si>
-    <t>Man. Flipper Up</t>
-  </si>
-  <si>
-    <t>Man. Flipper Forward</t>
-  </si>
-  <si>
-    <t>Man. Flipper Backwards</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>RB</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>L2 Hatch Cover Height</t>
-  </si>
-  <si>
-    <t>L1 Hatch Cover Height</t>
-  </si>
-  <si>
-    <t>L3 Hatch Cover Height</t>
-  </si>
-  <si>
-    <t>L3 Cargo Height</t>
-  </si>
-  <si>
-    <t>L2 Cargo Height</t>
-  </si>
-  <si>
-    <t>L1 Cargo Height</t>
-  </si>
-  <si>
-    <t>Cargo Ship Height</t>
-  </si>
-  <si>
-    <t>*Go to L1 Cargo Delivery Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Go to L1 Hatch Cover Delivery Height </t>
-  </si>
-  <si>
     <t>Drive To Vision Target</t>
   </si>
   <si>
-    <t>Deliver Hatch/Cargo</t>
-  </si>
-  <si>
-    <t>Pick-up Cargo From Floor</t>
-  </si>
-  <si>
-    <t>v2.1 (Feb 19, 2019)</t>
-  </si>
-  <si>
-    <t>Climb  from Level 1 to 3*</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>Climb from L1 to L3</t>
-  </si>
-  <si>
-    <t>Climb from L2 to L3</t>
-  </si>
-  <si>
-    <t>Climb from L1 to L2</t>
-  </si>
-  <si>
-    <t>Pick-up Hatch Cover From Loading St.</t>
-  </si>
-  <si>
-    <t>Pick-up Cargo From Loading Station</t>
+    <t>Elevator to Medium Height</t>
+  </si>
+  <si>
+    <t>Elevator to Low Height</t>
+  </si>
+  <si>
+    <t>Elevator to High Height</t>
+  </si>
+  <si>
+    <t>Elevator to Cargo Ship Cargo Height</t>
+  </si>
+  <si>
+    <t>Flip Manipulator</t>
+  </si>
+  <si>
+    <t>Intake Ball or Hatch</t>
+  </si>
+  <si>
+    <t>Cargo Mode / Expel Hatch</t>
+  </si>
+  <si>
+    <t>Hatch Mode / Expel Cargo</t>
+  </si>
+  <si>
+    <t>These are used for debugging or manual override only</t>
+  </si>
+  <si>
+    <t>Ball Intake Wheels</t>
+  </si>
+  <si>
+    <t>High/Low Gear</t>
+  </si>
+  <si>
+    <t>*Expand/Contract Hatch Panel Grabber</t>
+  </si>
+  <si>
+    <t>v3.0 (Feb 22, 2019)</t>
+  </si>
+  <si>
+    <t>Climb?</t>
+  </si>
+  <si>
+    <t>Manipulator Vertical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,125 +217,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -509,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,9 +413,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,48 +428,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,26 +440,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,7 +488,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,7 +498,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -734,13 +523,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1207685</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -748,7 +537,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +547,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -825,7 +614,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,27 +646,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,24 +680,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1102,15 +855,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
@@ -1120,108 +875,108 @@
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="2:11" ht="18.75">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.1" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="26.1" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="26.1" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="H5" s="21" t="s">
-        <v>19</v>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="26.1" customHeight="1">
       <c r="B6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="8" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="26.1" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="26.1" customHeight="1">
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="26.1" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="26.1" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -1230,7 +985,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="26.1" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1238,11 +993,11 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="H11" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="26.1" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1254,327 +1009,245 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
+    <row r="14" spans="2:11">
+      <c r="C14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
+      <c r="E15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="C16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="23"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="C17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="23"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="23"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="D19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="C21" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="23" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B25" s="4"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="H26" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="24"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="24"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="32"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="24"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-    </row>
-    <row r="26" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C26" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:10" ht="26.1" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="26.1" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="11"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="2:10" ht="26.1" customHeight="1">
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
+      <c r="H30" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="H33" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="3"/>
       <c r="C34" s="11"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="H34" s="10"/>
-    </row>
-    <row r="35" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="H35" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="2:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="H37" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="H40" s="6"/>
+      <c r="H35" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -91,9 +91,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Drive To Vision Target</t>
-  </si>
-  <si>
     <t>Elevator to Medium Height</t>
   </si>
   <si>
@@ -130,13 +127,22 @@
     <t>*Expand/Contract Hatch Panel Grabber</t>
   </si>
   <si>
-    <t>v3.0 (Feb 22, 2019)</t>
-  </si>
-  <si>
-    <t>Climb?</t>
-  </si>
-  <si>
     <t>Manipulator Vertical</t>
+  </si>
+  <si>
+    <t>v3.1 (Mar 3, 2019)</t>
+  </si>
+  <si>
+    <t>Climb</t>
+  </si>
+  <si>
+    <t>Retract climb</t>
+  </si>
+  <si>
+    <t>Toggle Vision</t>
+  </si>
+  <si>
+    <t>Milky Manipulator</t>
   </si>
 </sst>
 </file>
@@ -437,14 +443,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +494,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -498,7 +504,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -537,7 +543,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -547,7 +553,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -861,8 +867,8 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -876,52 +882,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.75">
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="26.1" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="26.1" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4" s="18"/>
     </row>
     <row r="5" spans="2:11" ht="26.1" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="18"/>
     </row>
@@ -934,7 +940,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" s="18"/>
     </row>
@@ -947,7 +953,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="H7" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="18"/>
     </row>
@@ -960,7 +966,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="H8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="18"/>
     </row>
@@ -973,7 +979,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="H9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="26.1" customHeight="1">
@@ -1010,13 +1016,13 @@
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="C14" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
+      <c r="C14" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:11">
       <c r="C15" s="13" t="s">
@@ -1041,7 +1047,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="23"/>
@@ -1071,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="23"/>
@@ -1092,17 +1098,19 @@
       <c r="J19" s="26"/>
     </row>
     <row r="21" spans="2:10" ht="18.75">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1110,15 +1118,21 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1131,9 +1145,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="31" t="s">
-        <v>36</v>
-      </c>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:10" ht="26.1" customHeight="1">
       <c r="B27" s="3"/>
@@ -1149,9 +1161,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="2:10" ht="26.1" customHeight="1">
       <c r="B29" s="3"/>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC642DB-CFFD-4F9D-AE5C-0562EDCA6A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,18 +18,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -130,9 +129,6 @@
     <t>Manipulator Vertical</t>
   </si>
   <si>
-    <t>v3.1 (Mar 3, 2019)</t>
-  </si>
-  <si>
     <t>Climb</t>
   </si>
   <si>
@@ -143,13 +139,25 @@
   </si>
   <si>
     <t>Milky Manipulator</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>Manipulator Forward</t>
+  </si>
+  <si>
+    <t>Manipulator Backward</t>
+  </si>
+  <si>
+    <t>v3.2 (Mar 4, 2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,7 +502,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +512,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -543,7 +551,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -553,7 +561,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -620,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,9 +660,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,6 +712,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,17 +905,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
@@ -881,7 +923,7 @@
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75">
+    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
@@ -890,10 +932,10 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="26.1" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -905,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="26.1" customHeight="1">
+    <row r="4" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -918,7 +960,7 @@
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" ht="26.1" customHeight="1">
+    <row r="5" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -931,7 +973,7 @@
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" ht="26.1" customHeight="1">
+    <row r="6" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -944,7 +986,7 @@
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" ht="26.1" customHeight="1">
+    <row r="7" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -957,7 +999,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" ht="26.1" customHeight="1">
+    <row r="8" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -970,7 +1012,7 @@
       </c>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" ht="26.1" customHeight="1">
+    <row r="9" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -982,7 +1024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="26.1" customHeight="1">
+    <row r="10" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -991,7 +1033,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:11" ht="26.1" customHeight="1">
+    <row r="11" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="26.1" customHeight="1">
+    <row r="12" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="31" t="s">
         <v>30</v>
       </c>
@@ -1024,7 +1066,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1034,12 +1076,14 @@
       <c r="E15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="15"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
@@ -1049,12 +1093,14 @@
       <c r="E16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="G16" s="23"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
@@ -1064,12 +1110,14 @@
       <c r="E17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="G17" s="23"/>
       <c r="I17" s="28"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
@@ -1079,12 +1127,14 @@
       <c r="E18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="G18" s="23"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1147,7 @@
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75">
+    <row r="21" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C21" s="30" t="s">
         <v>3</v>
       </c>
@@ -1107,9 +1157,9 @@
       <c r="G21" s="30"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="23" spans="2:10" ht="26.1" customHeight="1">
+    <row r="23" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -1117,21 +1167,21 @@
       <c r="F23" s="4"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:10" ht="26.1" customHeight="1">
+    <row r="24" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="H24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
@@ -1139,7 +1189,7 @@
       <c r="F25" s="4"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:10" ht="26.1" customHeight="1">
+    <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="11"/>
       <c r="D26" s="3"/>
@@ -1147,7 +1197,7 @@
       <c r="F26" s="3"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="2:10" ht="26.1" customHeight="1">
+    <row r="27" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="11"/>
       <c r="D27" s="3"/>
@@ -1155,7 +1205,7 @@
       <c r="F27" s="3"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:10" ht="26.1" customHeight="1">
+    <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="4"/>
@@ -1163,7 +1213,7 @@
       <c r="F28" s="4"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:10" ht="26.1" customHeight="1">
+    <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="11"/>
       <c r="D29" s="3"/>
@@ -1171,7 +1221,7 @@
       <c r="F29" s="3"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="2:10" ht="26.1" customHeight="1">
+    <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="4"/>
@@ -1181,7 +1231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="26.1" customHeight="1">
+    <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1241,7 @@
       <c r="F31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:10" ht="26.1" customHeight="1">
+    <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="4"/>
@@ -1211,7 +1261,7 @@
       <c r="F33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="11"/>
       <c r="D34" s="3"/>
@@ -1219,7 +1269,7 @@
       <c r="F34" s="3"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="4"/>
@@ -1234,30 +1284,30 @@
     <mergeCell ref="C14:G14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC642DB-CFFD-4F9D-AE5C-0562EDCA6A7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB3339-0E95-496E-8D37-C54E08E925A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Hatch Mode / Expel Cargo</t>
   </si>
   <si>
-    <t>These are used for debugging or manual override only</t>
-  </si>
-  <si>
     <t>Ball Intake Wheels</t>
   </si>
   <si>
@@ -132,12 +129,6 @@
     <t>Climb</t>
   </si>
   <si>
-    <t>Retract climb</t>
-  </si>
-  <si>
-    <t>Toggle Vision</t>
-  </si>
-  <si>
     <t>Milky Manipulator</t>
   </si>
   <si>
@@ -150,14 +141,32 @@
     <t>Manipulator Backward</t>
   </si>
   <si>
-    <t>v3.2 (Mar 4, 2019)</t>
+    <t>Drive to Vision Target</t>
+  </si>
+  <si>
+    <t>Retract Climb</t>
+  </si>
+  <si>
+    <t>Retract Legs</t>
+  </si>
+  <si>
+    <t>Extent Legs</t>
+  </si>
+  <si>
+    <t>v3.3 (Mar 6, 2019)</t>
+  </si>
+  <si>
+    <t>These are typically used for debugging or manual override</t>
+  </si>
+  <si>
+    <t>(Test)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +246,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -369,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,6 +474,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +932,9 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -932,7 +955,7 @@
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -962,14 +985,14 @@
     </row>
     <row r="5" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="18"/>
     </row>
@@ -1059,7 +1082,7 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -1077,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" s="15"/>
       <c r="I15" s="27"/>
@@ -1091,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="23"/>
       <c r="I16" s="26"/>
@@ -1111,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G17" s="23"/>
       <c r="I17" s="28"/>
@@ -1125,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G18" s="23"/>
       <c r="I18" s="26"/>
@@ -1158,39 +1181,43 @@
       <c r="H21" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>36</v>
+      <c r="B23" s="33" t="s">
+        <v>40</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="32" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="24" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>35</v>
+      <c r="B24" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="5" t="s">
-        <v>37</v>
+      <c r="H24" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
+      <c r="B25" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="8"/>
+      <c r="H25" s="32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1219,7 +1246,9 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="H29" s="10"/>
+      <c r="H29" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\frc\2019repo\2019CompetitionBot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BB3339-0E95-496E-8D37-C54E08E925A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -102,9 +96,6 @@
     <t>Elevator to Cargo Ship Cargo Height</t>
   </si>
   <si>
-    <t>Flip Manipulator</t>
-  </si>
-  <si>
     <t>Intake Ball or Hatch</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>Ball Intake Wheels</t>
   </si>
   <si>
-    <t>High/Low Gear</t>
-  </si>
-  <si>
     <t>*Expand/Contract Hatch Panel Grabber</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>Climb</t>
   </si>
   <si>
-    <t>Milky Manipulator</t>
-  </si>
-  <si>
     <t>LT</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>Manipulator Backward</t>
   </si>
   <si>
-    <t>Drive to Vision Target</t>
-  </si>
-  <si>
     <t>Retract Climb</t>
   </si>
   <si>
@@ -153,20 +135,32 @@
     <t>Extent Legs</t>
   </si>
   <si>
-    <t>v3.3 (Mar 6, 2019)</t>
-  </si>
-  <si>
     <t>These are typically used for debugging or manual override</t>
   </si>
   <si>
     <t>(Test)</t>
+  </si>
+  <si>
+    <t>Starting Configuration</t>
+  </si>
+  <si>
+    <t>Flip Manipulator*</t>
+  </si>
+  <si>
+    <t>Drive to Vision Target - Bumper Cam</t>
+  </si>
+  <si>
+    <t>Drive to Vision Target - Manipulator Cam</t>
+  </si>
+  <si>
+    <t>v3.5 (Mar 13, 2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,17 +463,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,7 +517,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,7 +527,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -572,7 +566,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,7 +576,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -649,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -681,27 +675,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -733,24 +709,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -926,17 +884,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
@@ -946,57 +904,57 @@
     <col min="8" max="8" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="30" t="s">
+    <row r="1" spans="2:11" ht="18.75">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
       <c r="H1" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="26.1" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="H3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="26.1" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K4" s="18"/>
     </row>
-    <row r="5" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="26.1" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="26.1" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +967,7 @@
       </c>
       <c r="K6" s="18"/>
     </row>
-    <row r="7" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="26.1" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +980,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="26.1" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +993,7 @@
       </c>
       <c r="K8" s="18"/>
     </row>
-    <row r="9" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="26.1" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="26.1" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -1056,7 +1014,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="26.1" customHeight="1">
       <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="26.1" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
@@ -1080,16 +1038,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11">
+      <c r="C14" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
@@ -1100,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15" s="15"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11">
       <c r="C16" s="16" t="s">
         <v>10</v>
       </c>
@@ -1114,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="23"/>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="C17" s="16" t="s">
         <v>12</v>
       </c>
@@ -1131,16 +1089,16 @@
         <v>19</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" s="23"/>
       <c r="I17" s="28"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="C18" s="16" t="s">
         <v>13</v>
       </c>
@@ -1148,75 +1106,77 @@
         <v>21</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="23"/>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="C19" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+      <c r="E19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="G19" s="25"/>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="2:10" ht="18.75">
+      <c r="C21" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="23" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>40</v>
+    <row r="23" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B23" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="H23" s="32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="26.1" customHeight="1">
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="H24" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>35</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="26.1" customHeight="1">
+      <c r="B25" s="31"/>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="H25" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="26.1" customHeight="1">
       <c r="B26" s="4"/>
       <c r="C26" s="11"/>
       <c r="D26" s="3"/>
@@ -1224,7 +1184,7 @@
       <c r="F26" s="3"/>
       <c r="H26" s="29"/>
     </row>
-    <row r="27" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="26.1" customHeight="1">
       <c r="B27" s="3"/>
       <c r="C27" s="11"/>
       <c r="D27" s="3"/>
@@ -1232,25 +1192,27 @@
       <c r="F27" s="3"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="26.1" customHeight="1">
       <c r="B28" s="4"/>
       <c r="C28" s="12"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="26.1" customHeight="1">
       <c r="B29" s="3"/>
       <c r="C29" s="11"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="H29" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="26.1" customHeight="1">
       <c r="B30" s="4"/>
       <c r="C30" s="12"/>
       <c r="D30" s="4"/>
@@ -1260,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="26.1" customHeight="1">
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1232,7 @@
       <c r="F31" s="3"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="2:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="26.1" customHeight="1">
       <c r="B32" s="4" t="s">
         <v>2</v>
       </c>
@@ -1282,7 +1244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="12"/>
       <c r="D33" s="4"/>
@@ -1290,7 +1252,7 @@
       <c r="F33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8">
       <c r="B34" s="3"/>
       <c r="C34" s="11"/>
       <c r="D34" s="3"/>
@@ -1298,7 +1260,7 @@
       <c r="F34" s="3"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="4"/>
       <c r="C35" s="12"/>
       <c r="D35" s="4"/>
@@ -1319,24 +1281,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2019CompetitionBot/Joystick Mapping.xlsx
+++ b/2019CompetitionBot/Joystick Mapping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Operator Joystick</t>
   </si>
@@ -138,22 +138,31 @@
     <t>These are typically used for debugging or manual override</t>
   </si>
   <si>
-    <t>(Test)</t>
-  </si>
-  <si>
     <t>Starting Configuration</t>
   </si>
   <si>
     <t>Flip Manipulator*</t>
   </si>
   <si>
-    <t>Drive to Vision Target - Bumper Cam</t>
-  </si>
-  <si>
-    <t>Drive to Vision Target - Manipulator Cam</t>
-  </si>
-  <si>
-    <t>v3.5 (Mar 13, 2019)</t>
+    <t>Score Low with Vision</t>
+  </si>
+  <si>
+    <t>Climb Again</t>
+  </si>
+  <si>
+    <t>Drive to Vision Target - Pickup</t>
+  </si>
+  <si>
+    <t>Drive to Vision Target - Score</t>
+  </si>
+  <si>
+    <t>Continue Left Auto</t>
+  </si>
+  <si>
+    <t>Continue Right Auto</t>
+  </si>
+  <si>
+    <t>v4.0 (Apr 27, 2019)</t>
   </si>
 </sst>
 </file>
@@ -517,7 +526,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,7 +536,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -566,7 +575,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -576,7 +585,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -890,7 +899,7 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -913,12 +922,12 @@
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="18" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:11" ht="26.1" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
@@ -943,7 +952,7 @@
     </row>
     <row r="5" spans="2:11" ht="26.1" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="3"/>
@@ -1167,13 +1176,15 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B25" s="31"/>
+      <c r="B25" s="31" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="H25" s="30" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="26.1" customHeight="1">
@@ -1182,7 +1193,9 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="29"/>
+      <c r="H26" s="29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="26.1" customHeight="1">
       <c r="B27" s="3"/>
@@ -1190,7 +1203,9 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="26.1" customHeight="1">
       <c r="B28" s="4"/>
